--- a/Season Simulations/From Week 18.xlsx
+++ b/Season Simulations/From Week 18.xlsx
@@ -603,31 +603,31 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11.18</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7.32</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -636,25 +636,25 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.52</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -669,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>13.16</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>6.36</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -684,16 +684,16 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AD2">
-        <v>100</v>
+        <v>5.44</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>13.56</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -704,31 +704,31 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>17.68</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -737,25 +737,25 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.98</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>6.94</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>13.72</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>10.74</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>6.26</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>26.18</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>12.66</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AD3">
-        <v>100</v>
+        <v>10.1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -805,31 +805,31 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>56.48</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>57.22</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>56.06</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>6.28</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>22.56</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -838,25 +838,25 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>84.8</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>26.1</v>
       </c>
       <c r="P4">
-        <v>100</v>
+        <v>59.46</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>24.36</v>
       </c>
       <c r="R4">
-        <v>100</v>
+        <v>49.88</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>40.42</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>100</v>
+        <v>95.66</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>55.96</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>12.36</v>
       </c>
       <c r="AD4">
-        <v>100</v>
+        <v>34.8</v>
       </c>
       <c r="AE4">
-        <v>100</v>
+        <v>45.82</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.68</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>54.56</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>51.4</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>35.12</v>
       </c>
       <c r="AD5">
-        <v>100</v>
+        <v>64.88</v>
       </c>
       <c r="AE5">
         <v>100</v>
@@ -1007,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>75.54000000000001</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24.46</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>100</v>
+        <v>25.9</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1108,100 +1108,100 @@
         <v>37</v>
       </c>
       <c r="B7">
-        <v>273</v>
+        <v>252.42</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>219.89</v>
       </c>
       <c r="D7">
-        <v>138</v>
+        <v>220.91</v>
       </c>
       <c r="E7">
-        <v>203</v>
+        <v>234.63</v>
       </c>
       <c r="F7">
-        <v>264</v>
+        <v>260.93</v>
       </c>
       <c r="G7">
-        <v>188</v>
+        <v>247.17</v>
       </c>
       <c r="H7">
-        <v>207</v>
+        <v>220.62</v>
       </c>
       <c r="I7">
-        <v>173</v>
+        <v>226.93</v>
       </c>
       <c r="J7">
-        <v>271</v>
+        <v>225.31</v>
       </c>
       <c r="K7">
-        <v>153</v>
+        <v>232.42</v>
       </c>
       <c r="L7">
-        <v>254</v>
+        <v>217.15</v>
       </c>
       <c r="M7">
-        <v>169</v>
+        <v>202.88</v>
       </c>
       <c r="N7">
-        <v>247</v>
+        <v>243.03</v>
       </c>
       <c r="O7">
-        <v>350</v>
+        <v>267.09</v>
       </c>
       <c r="P7">
-        <v>275</v>
+        <v>248.95</v>
       </c>
       <c r="Q7">
-        <v>255</v>
+        <v>253.57</v>
       </c>
       <c r="R7">
-        <v>204</v>
+        <v>263.15</v>
       </c>
       <c r="S7">
-        <v>231</v>
+        <v>225.15</v>
       </c>
       <c r="T7">
-        <v>258</v>
+        <v>229.67</v>
       </c>
       <c r="U7">
-        <v>150</v>
+        <v>224.83</v>
       </c>
       <c r="V7">
-        <v>339</v>
+        <v>217.43</v>
       </c>
       <c r="W7">
-        <v>258</v>
+        <v>217.85</v>
       </c>
       <c r="X7">
-        <v>250</v>
+        <v>246.22</v>
       </c>
       <c r="Y7">
-        <v>229</v>
+        <v>227.7</v>
       </c>
       <c r="Z7">
-        <v>213</v>
+        <v>254.06</v>
       </c>
       <c r="AA7">
-        <v>276</v>
+        <v>237.91</v>
       </c>
       <c r="AB7">
-        <v>246</v>
+        <v>224.87</v>
       </c>
       <c r="AC7">
-        <v>243</v>
+        <v>225.7</v>
       </c>
       <c r="AD7">
-        <v>299</v>
+        <v>267.72</v>
       </c>
       <c r="AE7">
-        <v>224</v>
+        <v>256.33</v>
       </c>
       <c r="AF7">
-        <v>351</v>
+        <v>267.66</v>
       </c>
       <c r="AG7">
-        <v>136</v>
+        <v>232.7</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1209,100 +1209,100 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1.16</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>1.12</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>1.51</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AF8">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1310,100 +1310,100 @@
         <v>39</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF9">
-        <v>2</v>
+        <v>0.44</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1411,100 +1411,100 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10.67</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>8.27</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>4.32</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>10.72</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>7.39</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2.39</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4.31</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>11.68</v>
       </c>
       <c r="N10">
-        <v>8</v>
+        <v>7.48</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>11.52</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="R10">
-        <v>11</v>
+        <v>11.55</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>9.44</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>4.39</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>6.49</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="X10">
-        <v>14</v>
+        <v>13.73</v>
       </c>
       <c r="Y10">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z10">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="AA10">
-        <v>7</v>
+        <v>7.34</v>
       </c>
       <c r="AB10">
-        <v>6</v>
+        <v>5.29</v>
       </c>
       <c r="AC10">
-        <v>9</v>
+        <v>8.65</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AE10">
-        <v>12</v>
+        <v>11.56</v>
       </c>
       <c r="AF10">
-        <v>12</v>
+        <v>12.53</v>
       </c>
       <c r="AG10">
-        <v>6</v>
+        <v>6.44</v>
       </c>
     </row>
   </sheetData>
